--- a/data/subgruposppt.xlsx
+++ b/data/subgruposppt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PROJETOR_GITHUB/sbfte_martins2023_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PROJETO_R_GITHUB/sbfte_martins2023_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F46A03-DF3A-4D84-9F1D-99DA94899157}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -819,26 +819,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.88671875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>77.52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>68.11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>56</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>56</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>56</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>56</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>56</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>56</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>56</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>56</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>56</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>56</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>56</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>32.61</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>56</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>56</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>57</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>57</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>57</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>57</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>57</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>57</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>57</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>57</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>57</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>57</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>57</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>57</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>57</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>57</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>57</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>57</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>57</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>57</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>57</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>57</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>57</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>57</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>57</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>57</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>57</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>57</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>57</v>
       </c>

--- a/data/subgruposppt.xlsx
+++ b/data/subgruposppt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PROJETO_R_GITHUB/sbfte_martins2023_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F46A03-DF3A-4D84-9F1D-99DA94899157}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3051EA88-03AD-470A-B8BE-176EAABDCF68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,31 +3961,31 @@
         <v>54</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E90" s="9">
-        <v>0.73</v>
+        <v>2.52</v>
       </c>
       <c r="F90" s="9">
-        <v>-0.3</v>
+        <v>0.63</v>
       </c>
       <c r="G90" s="9">
-        <v>1.76</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H90" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I90" s="9">
-        <v>79.069999999999993</v>
+        <v>72.930000000000007</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K90" s="1">
-        <v>1.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3999,28 +3999,28 @@
         <v>65</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E91" s="9">
-        <v>1.35</v>
+        <v>0.73</v>
       </c>
       <c r="F91" s="9">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G91" s="9">
-        <v>2.79</v>
+        <v>1.76</v>
       </c>
       <c r="H91" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I91" s="9">
-        <v>82.54</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K91" s="1">
-        <v>2.64</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4034,28 +4034,28 @@
         <v>65</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E92" s="9">
-        <v>-0.36</v>
+        <v>1.35</v>
       </c>
       <c r="F92" s="9">
-        <v>-1.1000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="G92" s="9">
-        <v>0.39</v>
+        <v>2.79</v>
       </c>
       <c r="H92" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92" s="9">
-        <v>0</v>
+        <v>82.54</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4066,31 +4066,31 @@
         <v>54</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E93" s="9">
-        <v>2.52</v>
+        <v>-0.36</v>
       </c>
       <c r="F93" s="9">
-        <v>0.63</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G93" s="9">
-        <v>4.4000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="H93" s="9">
         <v>3</v>
       </c>
       <c r="I93" s="9">
-        <v>72.930000000000007</v>
+        <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K93" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
